--- a/Dữ Liệu/Máy móc BK ETech.xlsx
+++ b/Dữ Liệu/Máy móc BK ETech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vba\bketech\Dữ Liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F107F9F-163C-42A9-B6A2-7CFC2C7B7440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54CCE82-70EC-498F-AE1D-D8B8850145B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{36AC4043-B6B5-4721-ACCC-1D0354568035}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36AC4043-B6B5-4721-ACCC-1D0354568035}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -601,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -641,7 +641,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -747,7 +747,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -889,7 +889,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -899,23 +899,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74464D60-A753-4BAD-9BD2-43C20F86F81F}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>67</v>
       </c>
@@ -929,7 +929,7 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -941,7 +941,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" spans="1:13" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:13" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>2</v>
       </c>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:13" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>3</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>4</v>
       </c>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1115,7 +1115,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:13" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="98.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>2</v>
       </c>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:13" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>3</v>
       </c>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
@@ -1212,7 +1212,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" spans="1:13" s="13" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="13" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>1</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:13" s="14" customFormat="1" ht="107.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="14" customFormat="1" ht="107.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>3</v>
       </c>
@@ -1304,7 +1304,7 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -1317,7 +1317,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" s="13" customFormat="1" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="13" customFormat="1" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>1</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="J18" s="6"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>2</v>
       </c>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:11" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>3</v>
       </c>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="22" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>1</v>
       </c>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:11" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2</v>
       </c>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:11" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>3</v>
       </c>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>4</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
@@ -1526,7 +1526,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>1</v>
       </c>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>2</v>
       </c>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
@@ -1594,7 +1594,7 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
         <v>1</v>
       </c>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
@@ -1636,7 +1636,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>1</v>
       </c>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30">
         <v>2</v>
       </c>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>1</v>
       </c>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="23"/>
       <c r="C35" s="25"/>
@@ -1738,7 +1738,7 @@
       <c r="I35" s="24"/>
       <c r="J35" s="24"/>
     </row>
-    <row r="36" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>41</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
       <c r="B37" s="33" t="s">
         <v>76</v>
